--- a/엑셀/함수_Average_교육평가표.xlsx
+++ b/엑셀/함수_Average_교육평가표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019엑셀스타터스\엑셀실습파일\3장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E1AEE6-92D9-423F-9EE3-3E18215EF139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A57148-8F41-4965-B8C2-8EC56F18A9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="0" windowWidth="27465" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="신입사원평가" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -283,11 +289,11 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="98" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,10 +746,22 @@
       <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="I4" s="5">
+        <f>AVERAGE(B4:B19)</f>
+        <v>67.9375</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(C4:C19)</f>
+        <v>65.75</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:L4" si="1">AVERAGE(D4:D19)</f>
+        <v>70.625</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>76.5</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1123,7 +1141,7 @@
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sortState ref="A4:F18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F18">
     <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="1">
